--- a/biology/Médecine/Robert_K._Stone/Robert_K._Stone.xlsx
+++ b/biology/Médecine/Robert_K._Stone/Robert_K._Stone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert K. Stone est un médecin du XIXe siècle, professeur au Columbia Medical College[1]. Il était le médecin personnel du président Abraham Lincoln et de sa famille[1]. En tant que tel, il dirigea l'équipe de médecins[2] qui entouraient le président, après l'attentat qui devait lui coûter la vie, le 14 avril 1865.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert K. Stone est un médecin du XIXe siècle, professeur au Columbia Medical College. Il était le médecin personnel du président Abraham Lincoln et de sa famille. En tant que tel, il dirigea l'équipe de médecins qui entouraient le président, après l'attentat qui devait lui coûter la vie, le 14 avril 1865.
 </t>
         </is>
       </c>
